--- a/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD46"/>
+  <dimension ref="A1:BE46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -893,18 +899,11 @@
       <c r="AU2" t="n">
         <v>1</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>1</v>
       </c>
@@ -941,7 +940,6 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>2</v>
       </c>
@@ -950,7 +948,6 @@
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -1079,18 +1076,11 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>1</v>
       </c>
@@ -1269,18 +1259,11 @@
       <c r="AU4" t="n">
         <v>1</v>
       </c>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1317,7 +1300,6 @@
       <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>2</v>
       </c>
@@ -1326,7 +1308,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>21014420.71</v>
       </c>
@@ -1455,18 +1436,11 @@
       <c r="AU5" t="n">
         <v>1</v>
       </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>1</v>
       </c>
@@ -1651,18 +1625,11 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1699,7 +1666,6 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>2</v>
       </c>
@@ -1708,7 +1674,6 @@
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>21382541.73</v>
       </c>
@@ -1843,18 +1808,11 @@
       <c r="AU7" t="n">
         <v>1</v>
       </c>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>1</v>
       </c>
@@ -1916,10 +1874,10 @@
       <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>44622</v>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1932,19 +1890,19 @@
           <t>LMS_BISLIG CITY_001</t>
         </is>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>44398</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>44418</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>44431</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -2022,19 +1980,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>1</v>
       </c>
@@ -2096,10 +2046,10 @@
       <c r="N9" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>44531</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="3" t="n">
         <v>44573</v>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2110,19 +2060,19 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="3" t="n">
         <v>44390</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>44466</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="X9" t="inlineStr">
@@ -2203,18 +2153,11 @@
       <c r="AU9" t="n">
         <v>1</v>
       </c>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>1</v>
       </c>
@@ -2276,7 +2219,7 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>44524</v>
       </c>
       <c r="P10" t="inlineStr">
@@ -2292,19 +2235,19 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>44411</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="3" t="n">
         <v>44421</v>
       </c>
       <c r="X10" t="inlineStr">
@@ -2385,18 +2328,11 @@
       <c r="AU10" t="n">
         <v>1</v>
       </c>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
@@ -2474,16 +2410,16 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>44404</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>44418</v>
       </c>
       <c r="W11" t="inlineStr">
@@ -2567,18 +2503,11 @@
       <c r="AU11" t="n">
         <v>1</v>
       </c>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>1</v>
       </c>
@@ -2640,7 +2569,7 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>44502</v>
       </c>
       <c r="P12" t="inlineStr">
@@ -2658,19 +2587,19 @@
           <t>005-2021</t>
         </is>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>44410</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="X12" t="inlineStr">
@@ -2749,18 +2678,11 @@
       <c r="AU12" t="n">
         <v>1</v>
       </c>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>1</v>
       </c>
@@ -2822,7 +2744,7 @@
       <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>44539</v>
       </c>
       <c r="P13" t="inlineStr">
@@ -2840,19 +2762,19 @@
           <t>004-2021</t>
         </is>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="3" t="n">
         <v>44384</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>44391</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>44417</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="3" t="n">
         <v>44419</v>
       </c>
       <c r="X13" t="inlineStr">
@@ -2931,18 +2853,11 @@
       <c r="AU13" t="n">
         <v>1</v>
       </c>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>1</v>
       </c>
@@ -3127,18 +3042,11 @@
       <c r="AU14" t="n">
         <v>1</v>
       </c>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>1</v>
       </c>
@@ -3312,19 +3220,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>1</v>
       </c>
@@ -3493,20 +3393,12 @@
       <c r="AS16" t="n">
         <v>0</v>
       </c>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="n">
         <v>0</v>
       </c>
       <c r="AW16" t="n">
         <v>1</v>
       </c>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>1</v>
       </c>
@@ -3675,20 +3567,12 @@
       <c r="AS17" t="n">
         <v>0</v>
       </c>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="n">
         <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>1</v>
       </c>
@@ -3750,10 +3634,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45252</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45252</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3766,19 +3650,19 @@
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>45036</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45055</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3854,21 +3738,14 @@
       <c r="AT18" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
         <v>1</v>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>1</v>
       </c>
@@ -3930,10 +3807,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45437</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45465</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3959,10 +3836,10 @@
           <t>13/05/2022</t>
         </is>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>44719</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>44768</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -4038,21 +3915,14 @@
       <c r="AT19" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="n">
         <v>1</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>1</v>
       </c>
@@ -4114,10 +3984,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45616</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4130,19 +4000,19 @@
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45322</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45437</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4150,7 +4020,6 @@
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
@@ -4214,23 +4083,17 @@
       <c r="AT20" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
         <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>1</v>
       </c>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>1</v>
       </c>
@@ -4292,10 +4155,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>44923</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45083</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4308,19 +4171,19 @@
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45117</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45131</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45152</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45163</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4396,21 +4259,14 @@
       <c r="AT21" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>1</v>
       </c>
@@ -4472,10 +4328,10 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>44923</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>44900</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4488,19 +4344,19 @@
           <t>BEFF-INFRA2022-008</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>44691</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>44700</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -4574,21 +4430,14 @@
       <c r="AT22" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="n">
         <v>1</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>1</v>
       </c>
@@ -4650,10 +4499,10 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>44923</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45003</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4666,19 +4515,19 @@
           <t>BEFF-INFRA2022-009</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>44651</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>44658</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>44672</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44691</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>44700</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4752,21 +4601,14 @@
       <c r="AT23" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="n">
         <v>1</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>1</v>
       </c>
@@ -4828,10 +4670,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45476</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45236</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4844,19 +4686,19 @@
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45250</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45296</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4932,23 +4774,17 @@
       <c r="AT24" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="n">
         <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
       </c>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
         <v>1</v>
       </c>
@@ -5010,10 +4846,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45286</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45411</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5026,19 +4862,19 @@
           <t>INFRA2023 045 LOT 1</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -5112,23 +4948,17 @@
       <c r="AT25" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="n">
         <v>0</v>
       </c>
       <c r="AW25" t="n">
         <v>1</v>
       </c>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +5020,7 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>45237</v>
       </c>
       <c r="P26" t="inlineStr">
@@ -5208,19 +5038,19 @@
           <t>INFRA2023 045 LOT 2</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45075</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45096</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45099</v>
       </c>
       <c r="X26" t="inlineStr">
@@ -5294,23 +5124,17 @@
       <c r="AT26" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="n">
         <v>0</v>
       </c>
       <c r="AW26" t="n">
         <v>1</v>
       </c>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="n">
         <v>1</v>
       </c>
@@ -5374,10 +5198,10 @@
       <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45125</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="3" t="n">
         <v>45324</v>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5390,19 +5214,19 @@
           <t>003-2023</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>44923</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>44931</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>44943</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>44958</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>44960</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5478,23 +5302,17 @@
       <c r="AT27" t="n">
         <v>3.24</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="n">
         <v>0</v>
       </c>
       <c r="AW27" t="n">
         <v>1</v>
       </c>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
         <v>1</v>
       </c>
@@ -5556,10 +5374,10 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>45427</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="3" t="n">
         <v>45505</v>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5572,19 +5390,19 @@
           <t>CY2023 LMS</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>45103</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45124</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45153</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -5660,23 +5478,17 @@
       <c r="AT28" t="n">
         <v>12.23</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="n">
         <v>0</v>
       </c>
       <c r="AW28" t="n">
         <v>1</v>
       </c>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
       <c r="BD28" t="n">
         <v>1</v>
       </c>
@@ -5773,10 +5585,10 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45133</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -5861,14 +5673,9 @@
       <c r="AW29" t="n">
         <v>1</v>
       </c>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="n">
         <v>1</v>
       </c>
-      <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="n">
         <v>1</v>
       </c>
@@ -5930,10 +5737,10 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45337</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="3" t="n">
         <v>45376</v>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5946,19 +5753,19 @@
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>45048</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45062</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45071</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -6045,9 +5852,6 @@
       <c r="AW30" t="n">
         <v>1</v>
       </c>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -6056,7 +5860,6 @@
       <c r="BB30" t="n">
         <v>1</v>
       </c>
-      <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="n">
         <v>1</v>
       </c>
@@ -6118,10 +5921,10 @@
       <c r="N31" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6134,19 +5937,19 @@
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6231,14 +6034,9 @@
       <c r="AW31" t="n">
         <v>1</v>
       </c>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="n">
         <v>1</v>
       </c>
-      <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="n">
         <v>1</v>
       </c>
@@ -6300,10 +6098,10 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>45483</v>
       </c>
       <c r="Q32" t="inlineStr">
@@ -6316,19 +6114,19 @@
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="3" t="n">
         <v>45317</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6413,14 +6211,9 @@
       <c r="AW32" t="n">
         <v>1</v>
       </c>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="n">
         <v>1</v>
       </c>
-      <c r="BC32" t="inlineStr"/>
       <c r="BD32" t="n">
         <v>1</v>
       </c>
@@ -6482,10 +6275,10 @@
       <c r="N33" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45252</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>45252</v>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6498,19 +6291,19 @@
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="3" t="n">
         <v>45036</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>45043</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>45055</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>45072</v>
       </c>
       <c r="X33" t="inlineStr">
@@ -6597,9 +6390,6 @@
       <c r="AW33" t="n">
         <v>1</v>
       </c>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -6608,7 +6398,6 @@
       <c r="BB33" t="n">
         <v>1</v>
       </c>
-      <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="n">
         <v>1</v>
       </c>
@@ -6670,10 +6459,10 @@
       <c r="N34" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45437</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="P34" s="3" t="n">
         <v>45465</v>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6686,19 +6475,19 @@
           <t>2023 - 002</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45201</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>45215</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45224</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45232</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>45280</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -6785,14 +6574,9 @@
       <c r="AW34" t="n">
         <v>1</v>
       </c>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="n">
         <v>1</v>
       </c>
-      <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6763,9 @@
       <c r="AW35" t="n">
         <v>1</v>
       </c>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="n">
         <v>1</v>
       </c>
-      <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="n">
         <v>1</v>
       </c>
@@ -7157,15 +6936,6 @@
       <c r="AS36" t="n">
         <v>0.7</v>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>5th</t>
@@ -7234,10 +7004,10 @@
       <c r="N37" t="n">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45664</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="Q37" t="inlineStr">
@@ -7250,19 +7020,19 @@
           <t>2024-04-010</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45413</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45419</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45432</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45448</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45511</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7336,14 +7106,6 @@
       <c r="AT37" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>4th</t>
@@ -7521,10 +7283,6 @@
       <c r="AS38" t="n">
         <v>0.85</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +7292,6 @@
       <c r="AZ38" t="n">
         <v>22961884</v>
       </c>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>4th</t>
@@ -7713,15 +7469,6 @@
       <c r="AS39" t="n">
         <v>0</v>
       </c>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr">
         <is>
           <t>4th</t>
@@ -7790,7 +7537,7 @@
       <c r="N40" t="n">
         <v>0.9</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45688</v>
       </c>
       <c r="P40" t="inlineStr">
@@ -7804,19 +7551,19 @@
       <c r="R40" t="n">
         <v>10312123</v>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="S40" s="3" t="n">
         <v>45243</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>45436</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>45436</v>
       </c>
       <c r="X40" t="inlineStr">
@@ -7887,15 +7634,6 @@
       <c r="AS40" t="n">
         <v>0</v>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
         <is>
           <t>5th</t>
@@ -7964,10 +7702,10 @@
       <c r="N41" t="n">
         <v>1</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="3" t="n">
         <v>45616</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>45799</v>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7980,19 +7718,19 @@
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="S41" s="3" t="n">
         <v>45264</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>45271</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>45294</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>45322</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>45437</v>
       </c>
       <c r="X41" t="inlineStr">
@@ -8066,14 +7804,6 @@
       <c r="AT41" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr">
         <is>
           <t>5th</t>
@@ -8142,7 +7872,7 @@
       <c r="N42" t="n">
         <v>0.18</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="3" t="n">
         <v>45531</v>
       </c>
       <c r="P42" t="inlineStr">
@@ -8160,19 +7890,19 @@
           <t>BEFF-INFRA2024-001</t>
         </is>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="S42" s="3" t="n">
         <v>45318</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="3" t="n">
         <v>45441</v>
       </c>
       <c r="X42" t="inlineStr">
@@ -8243,15 +7973,6 @@
       <c r="AS42" t="n">
         <v>0</v>
       </c>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
-      <c r="AV42" t="inlineStr"/>
-      <c r="AW42" t="inlineStr"/>
-      <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="inlineStr"/>
-      <c r="AZ42" t="inlineStr"/>
-      <c r="BA42" t="inlineStr"/>
-      <c r="BB42" t="inlineStr"/>
       <c r="BC42" t="inlineStr">
         <is>
           <t>1st</t>
@@ -8320,10 +8041,10 @@
       <c r="N43" t="n">
         <v>1</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="3" t="n">
         <v>45677</v>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8336,19 +8057,19 @@
           <t>FY-2023-INFRA-015</t>
         </is>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="S43" s="3" t="n">
         <v>45270</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="3" t="n">
         <v>45278</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="3" t="n">
         <v>45296</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="3" t="n">
         <v>45513</v>
       </c>
       <c r="X43" t="inlineStr">
@@ -8422,14 +8143,6 @@
       <c r="AT43" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
       <c r="BC43" t="inlineStr">
         <is>
           <t>1st</t>
@@ -8498,10 +8211,10 @@
       <c r="N44" t="n">
         <v>1</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="O44" s="3" t="n">
         <v>45585</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>45635</v>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8514,19 +8227,19 @@
           <t>INFRA003-2024</t>
         </is>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="S44" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="T44" s="3" t="n">
         <v>45246</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="U44" s="3" t="n">
         <v>45258</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="3" t="n">
         <v>45421</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="W44" s="3" t="n">
         <v>45425</v>
       </c>
       <c r="X44" t="inlineStr">
@@ -8602,14 +8315,6 @@
       <c r="AT44" t="n">
         <v>4.25</v>
       </c>
-      <c r="AU44" t="inlineStr"/>
-      <c r="AV44" t="inlineStr"/>
-      <c r="AW44" t="inlineStr"/>
-      <c r="AX44" t="inlineStr"/>
-      <c r="AY44" t="inlineStr"/>
-      <c r="AZ44" t="inlineStr"/>
-      <c r="BA44" t="inlineStr"/>
-      <c r="BB44" t="inlineStr"/>
       <c r="BC44" t="inlineStr">
         <is>
           <t>4th</t>
@@ -8678,7 +8383,7 @@
       <c r="N45" t="n">
         <v>0.9</v>
       </c>
-      <c r="O45" s="2" t="n">
+      <c r="O45" s="3" t="n">
         <v>45759</v>
       </c>
       <c r="P45" t="inlineStr">
@@ -8696,19 +8401,19 @@
           <t>008 - 2024</t>
         </is>
       </c>
-      <c r="S45" s="2" t="n">
+      <c r="S45" s="3" t="n">
         <v>45239</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="3" t="n">
         <v>45245</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="3" t="n">
         <v>45260</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="3" t="n">
         <v>45579</v>
       </c>
       <c r="X45" t="inlineStr">
@@ -8781,15 +8486,6 @@
       <c r="AS45" t="n">
         <v>0</v>
       </c>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
-      <c r="AV45" t="inlineStr"/>
-      <c r="AW45" t="inlineStr"/>
-      <c r="AX45" t="inlineStr"/>
-      <c r="AY45" t="inlineStr"/>
-      <c r="AZ45" t="inlineStr"/>
-      <c r="BA45" t="inlineStr"/>
-      <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="inlineStr">
         <is>
           <t>4th</t>
@@ -8858,7 +8554,7 @@
       <c r="N46" t="n">
         <v>0.4</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="O46" s="3" t="n">
         <v>45664</v>
       </c>
       <c r="P46" t="inlineStr">
@@ -8874,19 +8570,19 @@
       <c r="R46" t="n">
         <v>0</v>
       </c>
-      <c r="S46" s="2" t="n">
+      <c r="S46" s="3" t="n">
         <v>45259</v>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="T46" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
         <v>45287</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="3" t="n">
         <v>45301</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="3" t="n">
         <v>45482</v>
       </c>
       <c r="X46" t="inlineStr">
@@ -8959,15 +8655,6 @@
       <c r="AS46" t="n">
         <v>0</v>
       </c>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
-      <c r="AV46" t="inlineStr"/>
-      <c r="AW46" t="inlineStr"/>
-      <c r="AX46" t="inlineStr"/>
-      <c r="AY46" t="inlineStr"/>
-      <c r="AZ46" t="inlineStr"/>
-      <c r="BA46" t="inlineStr"/>
-      <c r="BB46" t="inlineStr"/>
       <c r="BC46" t="inlineStr">
         <is>
           <t>4th</t>
@@ -8975,6 +8662,79 @@
       </c>
       <c r="BD46" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,4766 +447,4795 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="281" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="44" customWidth="1" min="17" max="17"/>
+    <col width="44" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="44" customWidth="1" min="24" max="24"/>
+    <col width="137" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>131592</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Tinigbasan ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>21247319.3187</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>INFRA-2021-015</t>
         </is>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>131592</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Tinigbasan ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="inlineStr"/>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="inlineStr"/>
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr"/>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr"/>
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>INFRA-2021-015</t>
         </is>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>305479</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Kolambugan National High School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>SIBAGAT</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>21060050.7338</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>21014420.71</v>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 16, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Y4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>305479</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Kolambugan National High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>SIBAGAT</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="n">
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="n">
         <v>21014420.71</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 16, 2021</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>131607</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>New Salem ES</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>21432580.14640328</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>21382541.73</v>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>July 21, 2021</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>August 6, 2021</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>Thearis Builders and Supply</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>For Award</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>131607</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>New Salem ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="4" t="n">
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="n">
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="n">
         <v>21382541.73</v>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>July 21, 2021</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>August 6, 2021</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>Thearis Builders and Supply</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>For Award</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="Z7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Bislig City</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>132626</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Pamaypayan ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>CITY OF BISLIG</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>19163303.3063</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>19125272.89</v>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="n">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7" t="n">
         <v>44572</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="7" t="n">
         <v>44622</v>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>LMS_BISLIG CITY_001</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>LMS_BISLIG CITY_001</t>
         </is>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="S8" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="7" t="n">
         <v>44418</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="7" t="n">
         <v>44431</v>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>MN Bayalas Construction</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>PCAB Category "B", Lic. No.: 34251</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="Z8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>132391</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>A. Ecleo Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>DINAGAT</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>19402338.5115</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>14100000</v>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="5" t="n">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="n">
         <v>44531</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="7" t="n">
         <v>44573</v>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION INFRA21-002</t>
         </is>
       </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="T9" s="7" t="n">
         <v>44400</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="7" t="n">
         <v>44413</v>
       </c>
-      <c r="V9" s="5" t="n">
+      <c r="V9" s="7" t="n">
         <v>44466</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="7" t="n">
         <v>44470</v>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED\</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="Z9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>132196</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Pacifico Primary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>21210000</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>19000000</v>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="n">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="n">
         <v>44524</v>
       </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2021-004</t>
         </is>
       </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="n">
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="T10" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="7" t="n">
         <v>44404</v>
       </c>
-      <c r="V10" s="5" t="n">
+      <c r="V10" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="7" t="n">
         <v>44421</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>WINDFALL</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>contract duration extended</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Surigao City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>132276</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Arturo Borja ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>SURIGAO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>18560762.85153159</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>18532126.31</v>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5" t="n">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="T11" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="7" t="n">
         <v>44404</v>
       </c>
-      <c r="V11" s="5" t="n">
+      <c r="V11" s="7" t="n">
         <v>44418</v>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>FOR ISSUANCE</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>RJB Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Y11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>214011</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Tiltilan Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>GIGAQUIT</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>15998830.97341118</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>15971550.75</v>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="n">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="n">
         <v>44502</v>
       </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>2021-005-BEFF-CARAGA</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>005-2021</t>
         </is>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>132429</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Cantugas Cul. Minorities ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>MAINIT</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>19223342.8674</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>19150635.95</v>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="n">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7" t="n">
         <v>44539</v>
       </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>2021-004-BEFF-CARAGA</t>
         </is>
       </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>004-2021</t>
         </is>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="S13" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="T13" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="V13" s="5" t="n">
+      <c r="V13" s="7" t="n">
         <v>44417</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="7" t="n">
         <v>44419</v>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>CHIVES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>132803</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Napanpanan   Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Lingig</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>19892960.4848</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>19859577</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>December 28, 2021</t>
         </is>
       </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>December 20, 2021</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R XIII - SURIGAO DEL SUR - 001</t>
         </is>
       </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>2021 - 15</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>July 15, 2021</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>August 5, 2021</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>August 24, 2021</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>September 07, 2021</t>
         </is>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>Completed on time</t>
         </is>
       </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="Z14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>132958</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Banahao Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>15432866.1651</v>
       </c>
-      <c r="L15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>December 15, 2021</t>
         </is>
       </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Butuan City</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>281539</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Salvacion Indigenous Community Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>BUTUAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="G16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>15725955.42</v>
       </c>
-      <c r="L16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="5" t="n">
         <v>0.48</v>
       </c>
-      <c r="O16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Cabadbaran City</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>131524</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Mahaba Elementary school</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>CITY OF CABADBARAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>18753240.13</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>131530</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Balangbalang ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>REMEDIOS T. ROMUALDEZ</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>22633517.1088</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>12091132.49</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>2023-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="7" t="n">
         <v>45043</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>45055</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>45072</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>AMALGO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Z18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>304823</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Cab-ilan National High School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>DINAGAT</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="G19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>25399321.6421</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>11736814.2</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="7" t="n">
         <v>45465</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>LMS-001</t>
         </is>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="5" t="n">
         <v>44958</v>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>18/04/2022</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>13/05/2022</t>
         </is>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="7" t="n">
         <v>44719</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="7" t="n">
         <v>44768</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Z19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>132316</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Osmeña Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>23245664.4637</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>21098025.14</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7" t="n">
         <v>45616</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="7" t="n">
         <v>45799</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="7" t="n">
         <v>45264</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="7" t="n">
         <v>45294</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Y20" s="5" t="inlineStr"/>
+      <c r="Z20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>132317</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Plaridel Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="G21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>21422137.7841</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>21036508.36</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="n">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="7" t="n">
         <v>45083</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>INFRA22-003-02</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="7" t="n">
         <v>45131</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="7" t="n">
         <v>45163</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>ARDRAW</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Z21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>132186</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Katipunan Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="G22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>20882792.8856</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>17970756.58</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="7" t="n">
         <v>44900</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-008</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-008</t>
         </is>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="7" t="n">
         <v>44651</v>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="7" t="n">
         <v>44672</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="7" t="n">
         <v>44691</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="7" t="n">
         <v>44700</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>132207</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Bailan Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>SANTA MONICA (SAPAO)</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="G23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>20884952.7605</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>16246968.08</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="n">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="7" t="n">
         <v>45003</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-009</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-009</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="7" t="n">
         <v>44651</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="7" t="n">
         <v>44672</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="7" t="n">
         <v>44691</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="7" t="n">
         <v>44700</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Y23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>132349</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Little Baguio ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>BACUAG</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF 1 STY 1 CL DEPED STANDARD BUILDING</t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>17775494.1415</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>17586011.08</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="7" t="n">
         <v>45236</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-02</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>DIVISION IMPLEMENTED ( SUSPENDED DUE TO NON PASSABLE SITE)</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Z24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>132463</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Sohoton ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>MALIMONO</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF 1STY 2 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>17220573.8108</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>10698569.48</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="7" t="n">
         <v>45411</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RII-CAGAYAN-001</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>INFRA2023 045 LOT 1</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="7" t="n">
         <v>45075</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="7" t="n">
         <v>45099</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>GANIE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Y25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>132528</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Gacepan ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>SISON</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF TWO (2) 1STY 3 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>19503501.2023</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>15072295.7</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="n">
+      <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>February 13m 2024</t>
         </is>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RII-CAGAYAN-002</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>INFRA2023 045 LOT 2</t>
         </is>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="7" t="n">
         <v>45075</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="7" t="n">
         <v>45099</v>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>YZK CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Y26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>132547</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>SALVACION ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>TAGANA-AN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF TWO (2) UNITS  1STY 2 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>17808072.6712</v>
       </c>
-      <c r="L27" s="4" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 14214688.77</t>
         </is>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="5" t="n">
+      <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7" t="n">
         <v>45125</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="7" t="n">
         <v>45324</v>
       </c>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>2022-004-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>003-2023</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="7" t="n">
         <v>44931</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="7" t="n">
         <v>44943</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="7" t="n">
         <v>44958</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="7" t="n">
         <v>44960</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>DANREV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Z27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>214548</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Tabinas Indigenous Community Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="G28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND FLOOD MARKER</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>21084577.8768</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>17818880.19</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="n">
         <v>45427</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="P28" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>CY2023 LMS</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>CY2023 LMS</t>
         </is>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="7" t="n">
         <v>45103</v>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="7" t="n">
         <v>45124</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="7" t="n">
         <v>45153</v>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="7" t="n">
         <v>45182</v>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>Rely Construction and Supply</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>with Time Extensions due to unworkable days due to bad weather condition and delays in the delivery of materials due to unpassable road</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Z28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>131531</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Humilog ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>REMEDIOS T. ROMUALDEZ</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM COLLECTOR, </t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>17170000.1</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>14766095.03</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
+      <c r="N29" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - CARAGA - AGUSAN DEL NORTE - 001</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - CARAGA - AGUSAN DEL NORTE - 001</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U29" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V29" s="5" t="n">
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V29" s="7" t="n">
         <v>45133</v>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="7" t="n">
         <v>45145</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>Jodels Construction Supplies &amp; Merchandise</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Y29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>132316</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Osmeña Elementary School</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="G30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOM SCHOOL BUILDING (WITH COMMON TOILET), with Provision of WATER SYSTEM-Deep Well Design with electric-powered Submersible water pump, School Furniture, Perimeter Solar Lighting System</t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>17166772.68</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>13427411.97</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="n">
+      <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7" t="n">
         <v>45337</v>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="P30" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="7" t="n">
         <v>45048</v>
       </c>
-      <c r="T30" s="5" t="n">
+      <c r="T30" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="7" t="n">
         <v>45071</v>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="7" t="n">
         <v>45127</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>DANREV</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Z30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>132169</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Halian Elementary School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>DEL CARMEN</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>17169796.75</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>16945355.98</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="5" t="n">
+      <c r="N31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="7" t="n">
         <v>45390</v>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="P31" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="7" t="n">
         <v>45329</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="7" t="n">
         <v>45342</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="7" t="n">
         <v>45356</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>RBEP Construction</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Y31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>132149</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Corazon Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>GENERAL LUNA</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="G32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>17169796.75</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>16943551</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="n">
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7" t="n">
         <v>45390</v>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="P32" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S32" s="5" t="n">
+      <c r="S32" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="T32" s="5" t="n">
+      <c r="T32" s="7" t="n">
         <v>45329</v>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="7" t="n">
         <v>45342</v>
       </c>
-      <c r="V32" s="5" t="n">
+      <c r="V32" s="7" t="n">
         <v>45356</v>
       </c>
-      <c r="W32" s="5" t="n">
+      <c r="W32" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>RBEP Construction</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Y32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>132543</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Laurel ES</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>TAGANA-AN</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOM SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>17165004.86</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>12091132.49</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="5" t="n">
+      <c r="N33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="P33" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="Q33" s="4" t="inlineStr">
+      <c r="Q33" s="5" t="inlineStr">
         <is>
           <t>2023-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R33" s="4" t="inlineStr">
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S33" s="5" t="n">
+      <c r="S33" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="T33" s="5" t="n">
+      <c r="T33" s="7" t="n">
         <v>45043</v>
       </c>
-      <c r="U33" s="5" t="n">
+      <c r="U33" s="7" t="n">
         <v>45055</v>
       </c>
-      <c r="V33" s="5" t="n">
+      <c r="V33" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="W33" s="5" t="n">
+      <c r="W33" s="7" t="n">
         <v>45072</v>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>AMALGO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Z33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>305747</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Gacub Atad S. Iligan Tribal National High School</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="G34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHTING SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>14359089.13</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>11736814.2</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5" t="n">
+      <c r="N34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="P34" s="7" t="n">
         <v>45465</v>
       </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>LMS-001</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>2023 - 002</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="7" t="n">
         <v>45201</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="7" t="n">
         <v>45215</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="7" t="n">
         <v>45224</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="7" t="n">
         <v>45232</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Z34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>136972</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Pag-asa Tribal Community Elementary School</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="G35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>22972431.7</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>22744896.06</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="N35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>CYL Construction and Supply</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Z35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>131588</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>RAM Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>: CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>23088243.68</v>
       </c>
-      <c r="L36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="L36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
+      <c r="N36" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>212051</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Jose T. Cuyos, Sr. I PS</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO(2) UNITS - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE and SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>20300220.62</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>17777918.71</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="5" t="n">
+      <c r="N37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="P37" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>2024-06-028</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>2024-04-010</t>
         </is>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="7" t="n">
         <v>45413</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>OBMB BUILDERS</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Y37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>131643</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Taglibas ES</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM COLLECTOR, </t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>22961884</v>
       </c>
-      <c r="L38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="L38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
+      <c r="N38" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4" t="inlineStr">
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>Mt. Ararat realigned to Taglibas ES</t>
         </is>
       </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Z38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Butuan City</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>132072</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Doña Teodora ES</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>BUTUAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>27272727.27</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="5" t="n">
         <v>25950680.71</v>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
+      <c r="N39" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W39" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="4" t="inlineStr">
+      <c r="O39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5" t="inlineStr">
         <is>
           <t>with suballotment already downloaded</t>
         </is>
       </c>
-      <c r="Z39" s="4" t="n"/>
+      <c r="Z39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Cabadbaran City</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>330101</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Puting Bato National High School</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>CITY OF CABADBARAN</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>22850951.92</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="5" t="n">
         <v>2923591.71</v>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
+      <c r="N40" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="7" t="n">
         <v>45688</v>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="n">
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="n">
         <v>10312123</v>
       </c>
-      <c r="R40" s="4" t="n">
+      <c r="R40" s="5" t="n">
         <v>10312123</v>
       </c>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="7" t="n">
         <v>45243</v>
       </c>
-      <c r="T40" s="5" t="n">
+      <c r="T40" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="U40" s="5" t="n">
+      <c r="U40" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V40" s="5" t="n">
+      <c r="V40" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="W40" s="5" t="n">
+      <c r="W40" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4" t="n"/>
+      <c r="Y40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>132558</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Sta Cruz Elementary School</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>TUBAJON</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="n">
+      <c r="H41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SOLAR PV ENERGY SYSTEM, FURNITURES AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>22210093.61</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="5" t="n">
         <v>21098025.14</v>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="5" t="n">
+      <c r="N41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="7" t="n">
         <v>45616</v>
       </c>
-      <c r="P41" s="5" t="n">
+      <c r="P41" s="7" t="n">
         <v>45799</v>
       </c>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="Q41" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S41" s="5" t="n">
+      <c r="S41" s="7" t="n">
         <v>45264</v>
       </c>
-      <c r="T41" s="5" t="n">
+      <c r="T41" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="U41" s="5" t="n">
+      <c r="U41" s="7" t="n">
         <v>45294</v>
       </c>
-      <c r="V41" s="5" t="n">
+      <c r="V41" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="W41" s="5" t="n">
+      <c r="W41" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="X41" s="4" t="inlineStr">
+      <c r="X41" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4" t="n"/>
+      <c r="Y41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>132223</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>N.Sering  Comm. Sch.ES</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>SOCORRO</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="n">
+      <c r="H42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="4" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="5" t="n">
         <v>16637813.31</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="5" t="n">
         <v>16378679.01</v>
       </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="M42" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N42" s="4" t="n">
+      <c r="N42" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="O42" s="5" t="n">
+      <c r="O42" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q42" s="4" t="inlineStr">
+      <c r="P42" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q42" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2024-001</t>
         </is>
       </c>
-      <c r="R42" s="4" t="inlineStr">
+      <c r="R42" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2024-001</t>
         </is>
       </c>
-      <c r="S42" s="5" t="n">
+      <c r="S42" s="7" t="n">
         <v>45318</v>
       </c>
-      <c r="T42" s="5" t="n">
+      <c r="T42" s="7" t="n">
         <v>45329</v>
       </c>
-      <c r="U42" s="5" t="n">
+      <c r="U42" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="V42" s="5" t="n">
+      <c r="V42" s="7" t="n">
         <v>45384</v>
       </c>
-      <c r="W42" s="5" t="n">
+      <c r="W42" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="X42" s="4" t="inlineStr">
+      <c r="X42" s="5" t="inlineStr">
         <is>
           <t>AN ESCALANTE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Y42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4" t="n"/>
+      <c r="Y42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Surigao City</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>132242</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Alegria ES</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>SURIGAO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="n">
+      <c r="H43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J43" s="4" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="5" t="n">
         <v>22395355.38</v>
       </c>
-      <c r="L43" s="4" t="n">
+      <c r="L43" s="5" t="n">
         <v>18148693.46</v>
       </c>
-      <c r="M43" s="4" t="inlineStr">
+      <c r="M43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="n">
+      <c r="N43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7" t="n">
         <v>45678</v>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="P43" s="7" t="n">
         <v>45677</v>
       </c>
-      <c r="Q43" s="4" t="inlineStr">
+      <c r="Q43" s="5" t="inlineStr">
         <is>
           <t>2023-11-577</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="R43" s="5" t="inlineStr">
         <is>
           <t>FY-2023-INFRA-015</t>
         </is>
       </c>
-      <c r="S43" s="5" t="n">
+      <c r="S43" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="T43" s="5" t="n">
+      <c r="T43" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="U43" s="5" t="n">
+      <c r="U43" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="V43" s="5" t="n">
+      <c r="V43" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="W43" s="5" t="n">
+      <c r="W43" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="X43" s="4" t="inlineStr">
+      <c r="X43" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4" t="n"/>
+      <c r="Y43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>132481</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
+      <c r="E44" s="5" t="inlineStr">
         <is>
           <t>Sani-Sani PS</t>
         </is>
       </c>
-      <c r="F44" s="4" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>PLACER</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4" t="n">
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J44" s="4" t="inlineStr">
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY2CL (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="5" t="n">
         <v>18036516.81</v>
       </c>
-      <c r="L44" s="4" t="n">
+      <c r="L44" s="5" t="n">
         <v>17823108.98</v>
       </c>
-      <c r="M44" s="4" t="inlineStr">
+      <c r="M44" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="5" t="n">
+      <c r="N44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7" t="n">
         <v>45585</v>
       </c>
-      <c r="P44" s="5" t="n">
+      <c r="P44" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="Q44" s="4" t="inlineStr">
+      <c r="Q44" s="5" t="inlineStr">
         <is>
           <t>2024-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R44" s="4" t="inlineStr">
+      <c r="R44" s="5" t="inlineStr">
         <is>
           <t>INFRA003-2024</t>
         </is>
       </c>
-      <c r="S44" s="5" t="n">
+      <c r="S44" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="T44" s="5" t="n">
+      <c r="T44" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="U44" s="5" t="n">
+      <c r="U44" s="7" t="n">
         <v>45258</v>
       </c>
-      <c r="V44" s="5" t="n">
+      <c r="V44" s="7" t="n">
         <v>45421</v>
       </c>
-      <c r="W44" s="5" t="n">
+      <c r="W44" s="7" t="n">
         <v>45425</v>
       </c>
-      <c r="X44" s="4" t="inlineStr">
+      <c r="X44" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y44" s="4" t="inlineStr">
+      <c r="Y44" s="5" t="inlineStr">
         <is>
           <t>WITH TIME EXTENSION</t>
         </is>
       </c>
-      <c r="Z44" s="4" t="n"/>
+      <c r="Z44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>500571</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
+      <c r="E45" s="5" t="inlineStr">
         <is>
           <t>Pakwan Integrated School</t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>LANUZA</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4" t="n">
+      <c r="H45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J45" s="4" t="inlineStr">
+      <c r="J45" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="5" t="n">
         <v>21869030.83</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="5" t="n">
         <v>21626168.4137371</v>
       </c>
-      <c r="M45" s="4" t="inlineStr">
+      <c r="M45" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N45" s="4" t="n">
+      <c r="N45" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O45" s="5" t="n">
+      <c r="O45" s="7" t="n">
         <v>45759</v>
       </c>
-      <c r="P45" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q45" s="4" t="inlineStr">
+      <c r="P45" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q45" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - R XIII - SURIGAO DEL SUR - 003</t>
         </is>
       </c>
-      <c r="R45" s="4" t="inlineStr">
+      <c r="R45" s="5" t="inlineStr">
         <is>
           <t>008 - 2024</t>
         </is>
       </c>
-      <c r="S45" s="5" t="n">
+      <c r="S45" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="T45" s="5" t="n">
+      <c r="T45" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U45" s="5" t="n">
+      <c r="U45" s="7" t="n">
         <v>45260</v>
       </c>
-      <c r="V45" s="5" t="n">
+      <c r="V45" s="7" t="n">
         <v>45341</v>
       </c>
-      <c r="W45" s="5" t="n">
+      <c r="W45" s="7" t="n">
         <v>45579</v>
       </c>
-      <c r="X45" s="4" t="inlineStr">
+      <c r="X45" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y45" s="4" t="inlineStr">
+      <c r="Y45" s="5" t="inlineStr">
         <is>
           <t>Contract time extension approved due to impassable roads caused by severe weather</t>
         </is>
       </c>
-      <c r="Z45" s="4" t="n"/>
+      <c r="Z45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>132965</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
+      <c r="E46" s="5" t="inlineStr">
         <is>
           <t>Hitaob Elementary School</t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4" t="n">
+      <c r="H46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J46" s="4" t="inlineStr">
+      <c r="J46" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="5" t="n">
         <v>22162351.68</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="5" t="n">
         <v>17311234.52</v>
       </c>
-      <c r="M46" s="4" t="inlineStr">
+      <c r="M46" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N46" s="4" t="n">
+      <c r="N46" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O46" s="5" t="n">
+      <c r="O46" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q46" s="4" t="inlineStr">
+      <c r="P46" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q46" s="5" t="inlineStr">
         <is>
           <t>2023-11-201</t>
         </is>
       </c>
-      <c r="R46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5" t="n">
+      <c r="R46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="T46" s="5" t="n">
+      <c r="T46" s="7" t="n">
         <v>45267</v>
       </c>
-      <c r="U46" s="5" t="n">
+      <c r="U46" s="7" t="n">
         <v>45287</v>
       </c>
-      <c r="V46" s="5" t="n">
+      <c r="V46" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="W46" s="5" t="n">
+      <c r="W46" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="X46" s="4" t="inlineStr">
+      <c r="X46" s="5" t="inlineStr">
         <is>
           <t>Grandstellar Builders Inc.</t>
         </is>
       </c>
-      <c r="Y46" s="4" t="inlineStr">
+      <c r="Y46" s="5" t="inlineStr">
         <is>
           <t>with time extension and suspension</t>
         </is>
       </c>
-      <c r="Z46" s="4" t="n"/>
+      <c r="Z46" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,227 +453,231 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="281" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="281" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="44" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
     <col width="44" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="44" customWidth="1" min="24" max="24"/>
-    <col width="137" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="44" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="44" customWidth="1" min="25" max="25"/>
+    <col width="137" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>131592</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Tinigbasan ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>21247319.3187</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O2" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
@@ -682,102 +686,105 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
           <t>INFRA-2021-015</t>
         </is>
       </c>
-      <c r="R2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="T2" s="5" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="V2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X2" s="5" t="n">
-        <v>0</v>
+      <c r="X2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="6" t="n"/>
+      <c r="Z2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>131592</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Tinigbasan ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="inlineStr"/>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr"/>
-      <c r="L3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
@@ -786,138 +793,141 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
           <t>INFRA-2021-015</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>August 3, 2021</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>August 11, 2021</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>August 23, 2021</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="6" t="n"/>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>305479</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Kolambugan National High School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>SIBAGAT</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>21060050.7338</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>21014420.71</v>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="S4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>AUGUST 16, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -925,103 +935,106 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6" t="n"/>
+      <c r="Z4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>305479</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Kolambugan National High School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>SIBAGAT</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>21014420.71</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 02, 2021</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>AUGUST 16, 2021</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -1029,75 +1042,78 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="n"/>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>131607</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>New Salem ES</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>21432580.14640328</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>21382541.73</v>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O6" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
@@ -1106,108 +1122,111 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>July 21, 2021</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>August 6, 2021</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
           <t>Thearis Builders and Supply</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>For Award</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>131607</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>New Salem ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
         <v>21382541.73</v>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
@@ -1216,946 +1235,973 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>2021-008</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>July 13, 2021</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>July 21, 2021</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>August 6, 2021</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
+        <is>
           <t>Thearis Builders and Supply</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>For Award</t>
         </is>
       </c>
-      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Bislig City</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>132626</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Pamaypayan ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>CITY OF BISLIG</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>19163303.3063</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>19125272.89</v>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <v>44572</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="Q8" s="7" t="n">
         <v>44622</v>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>LMS_BISLIG CITY_001</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>LMS_BISLIG CITY_001</t>
         </is>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="T8" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T8" s="7" t="n">
+      <c r="U8" s="7" t="n">
         <v>44398</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="V8" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="V8" s="7" t="n">
+      <c r="W8" s="7" t="n">
         <v>44418</v>
       </c>
-      <c r="W8" s="7" t="n">
+      <c r="X8" s="7" t="n">
         <v>44431</v>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>MN Bayalas Construction</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>PCAB Category "B", Lic. No.: 34251</t>
         </is>
       </c>
-      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>132391</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>A. Ecleo Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>DINAGAT</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>19402338.5115</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>14100000</v>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7" t="n">
+      <c r="O9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <v>44531</v>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="Q9" s="7" t="n">
         <v>44573</v>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION INFRA21-002</t>
         </is>
       </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7" t="n">
         <v>44390</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="U9" s="7" t="n">
         <v>44400</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="V9" s="7" t="n">
         <v>44413</v>
       </c>
-      <c r="V9" s="7" t="n">
+      <c r="W9" s="7" t="n">
         <v>44466</v>
       </c>
-      <c r="W9" s="7" t="n">
+      <c r="X9" s="7" t="n">
         <v>44470</v>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>COMPLETED\</t>
         </is>
       </c>
-      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>132196</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Pacifico Primary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>SAN ISIDRO</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>21210000</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>19000000</v>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <v>44524</v>
       </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q10" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
           <t>BEFF-INFRA2021-004</t>
         </is>
       </c>
-      <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="U10" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="V10" s="7" t="n">
         <v>44404</v>
       </c>
-      <c r="V10" s="7" t="n">
+      <c r="W10" s="7" t="n">
         <v>44411</v>
       </c>
-      <c r="W10" s="7" t="n">
+      <c r="X10" s="7" t="n">
         <v>44421</v>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>WINDFALL</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>contract duration extended</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Surigao City</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>132276</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Arturo Borja ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>SURIGAO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE,  SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>18560762.85153159</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>18532126.31</v>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O11" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n">
-        <v>0</v>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="U11" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="V11" s="7" t="n">
         <v>44404</v>
       </c>
-      <c r="V11" s="7" t="n">
+      <c r="W11" s="7" t="n">
         <v>44418</v>
       </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>FOR ISSUANCE</t>
         </is>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>RJB Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6" t="n"/>
+      <c r="Z11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>214011</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Tiltilan Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>GIGAQUIT</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>15998830.97341118</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>15971550.75</v>
       </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <v>44502</v>
       </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
           <t>2021-005-BEFF-CARAGA</t>
         </is>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>005-2021</t>
         </is>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="T12" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="U12" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="V12" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="V12" s="7" t="n">
+      <c r="W12" s="7" t="n">
         <v>44410</v>
       </c>
-      <c r="W12" s="7" t="n">
+      <c r="X12" s="7" t="n">
         <v>44412</v>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6" t="n"/>
+      <c r="Z12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>132429</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Cantugas Cul. Minorities ES</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>MAINIT</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>19223342.8674</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>19150635.95</v>
       </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <v>44539</v>
       </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
           <t>2021-004-BEFF-CARAGA</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>004-2021</t>
         </is>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="T13" s="7" t="n">
         <v>44384</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="U13" s="7" t="n">
         <v>44391</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="V13" s="7" t="n">
         <v>44403</v>
       </c>
-      <c r="V13" s="7" t="n">
+      <c r="W13" s="7" t="n">
         <v>44417</v>
       </c>
-      <c r="W13" s="7" t="n">
+      <c r="X13" s="7" t="n">
         <v>44419</v>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>CHIVES CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6" t="n"/>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>132803</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Napanpanan   Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Lingig</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>19892960.4848</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>19859577</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>December 28, 2021</t>
         </is>
       </c>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>December 20, 2021</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>LMS 2020 - R XIII - SURIGAO DEL SUR - 001</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>2021 - 15</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>July 15, 2021</t>
         </is>
       </c>
-      <c r="T14" s="5" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>July 27, 2021</t>
         </is>
       </c>
-      <c r="U14" s="5" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>August 5, 2021</t>
         </is>
       </c>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>August 24, 2021</t>
         </is>
       </c>
-      <c r="W14" s="5" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>September 07, 2021</t>
         </is>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>Completed on time</t>
         </is>
       </c>
-      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>132958</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Banahao Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>15432866.1651</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="M15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>December 15, 2021</t>
         </is>
       </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>0</v>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>July 8, 2021</t>
         </is>
       </c>
-      <c r="T15" s="5" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>July 22, 2021</t>
         </is>
       </c>
-      <c r="U15" s="5" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>August 2, 2021</t>
         </is>
       </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X15" s="5" t="n">
-        <v>0</v>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z15" s="6" t="n"/>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Butuan City</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>281539</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Salvacion Indigenous Community Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>BUTUAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>15725955.42</v>
       </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="M16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="O16" s="5" t="n">
         <v>0.48</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P16" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="n">
-        <v>0</v>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S16" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
@@ -2177,91 +2223,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X16" s="5" t="n">
-        <v>0</v>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z16" s="6" t="n"/>
+      <c r="Z16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Cabadbaran City</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>131524</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Mahaba Elementary school</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>CITY OF CABADBARAN</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>18753240.13</v>
       </c>
-      <c r="L17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="O17" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="n">
-        <v>0</v>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S17" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="5" t="inlineStr">
         <is>
@@ -2283,1172 +2332,1208 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X17" s="5" t="n">
-        <v>0</v>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="6" t="n"/>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>216</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>131530</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Balangbalang ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>REMEDIOS T. ROMUALDEZ</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SLOPE PROTECTION, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM </t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>22633517.1088</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>12091132.49</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="n">
-        <v>45252</v>
+      <c r="O18" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="Q18" s="7" t="n">
+        <v>45252</v>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>2023-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="T18" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>45043</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>45055</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>45072</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>AMALGO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z18" s="6" t="n"/>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>217</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>304823</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Cab-ilan National High School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>DINAGAT</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>25399321.6421</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>11736814.2</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="7" t="n">
         <v>45465</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>LMS-001</t>
         </is>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="S19" s="5" t="n">
         <v>44958</v>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>18/04/2022</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>29/04/2022</t>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>13/05/2022</t>
         </is>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="W19" s="7" t="n">
         <v>44719</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="X19" s="7" t="n">
         <v>44768</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z19" s="6" t="n"/>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>218</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>132316</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Osmeña Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>23245664.4637</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>21098025.14</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>45616</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="7" t="n">
         <v>45799</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="T20" s="7" t="n">
         <v>45264</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="U20" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>45294</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr"/>
-      <c r="Z20" s="6" t="n"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>219</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>132317</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Plaridel Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>21422137.7841</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>21036508.36</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="Q21" s="7" t="n">
         <v>45083</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>INFRA22-003-02</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>PB-05-2023</t>
         </is>
       </c>
-      <c r="S21" s="7" t="n">
+      <c r="T21" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="U21" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="V21" s="7" t="n">
         <v>45131</v>
       </c>
-      <c r="V21" s="7" t="n">
+      <c r="W21" s="7" t="n">
         <v>45152</v>
       </c>
-      <c r="W21" s="7" t="n">
+      <c r="X21" s="7" t="n">
         <v>45163</v>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>ARDRAW</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z21" s="6" t="n"/>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>220</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>132186</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Katipunan Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>20882792.8856</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>17970756.58</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="Q22" s="7" t="n">
         <v>44900</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-008</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-008</t>
         </is>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="T22" s="7" t="n">
         <v>44651</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="U22" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>44672</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="W22" s="7" t="n">
         <v>44691</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="X22" s="7" t="n">
         <v>44700</v>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6" t="n"/>
+      <c r="Z22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>221</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>132207</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Bailan Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>SANTA MONICA (SAPAO)</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>20884952.7605</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>16246968.08</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="Q23" s="7" t="n">
         <v>45003</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-009</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2022-009</t>
         </is>
       </c>
-      <c r="S23" s="7" t="n">
+      <c r="T23" s="7" t="n">
         <v>44651</v>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="U23" s="7" t="n">
         <v>44658</v>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="V23" s="7" t="n">
         <v>44672</v>
       </c>
-      <c r="V23" s="7" t="n">
+      <c r="W23" s="7" t="n">
         <v>44691</v>
       </c>
-      <c r="W23" s="7" t="n">
+      <c r="X23" s="7" t="n">
         <v>44700</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>INNOVATI CONSTRUCTION CORP</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6" t="n"/>
+      <c r="Z23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>222</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>132349</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Little Baguio ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>BACUAG</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="H24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF 1 STY 1 CL DEPED STANDARD BUILDING</t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>17775494.1415</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>17586011.08</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="Q24" s="7" t="n">
         <v>45236</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>2023LMSRO1-02</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>SDOLU-LMS 2023-2</t>
         </is>
       </c>
-      <c r="S24" s="7" t="n">
+      <c r="T24" s="7" t="n">
         <v>45250</v>
       </c>
-      <c r="T24" s="7" t="n">
+      <c r="U24" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="U24" s="7" t="n">
+      <c r="V24" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V24" s="7" t="n">
+      <c r="W24" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="W24" s="7" t="n">
+      <c r="X24" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>LAV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>DIVISION IMPLEMENTED ( SUSPENDED DUE TO NON PASSABLE SITE)</t>
         </is>
       </c>
-      <c r="Z24" s="6" t="n"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>223</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>132463</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Sohoton ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>MALIMONO</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="H25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF 1STY 2 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>17220573.8108</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>10698569.48</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="n">
         <v>45286</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="Q25" s="7" t="n">
         <v>45411</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RII-CAGAYAN-001</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>INFRA2023 045 LOT 1</t>
         </is>
       </c>
-      <c r="S25" s="7" t="n">
+      <c r="T25" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T25" s="7" t="n">
+      <c r="U25" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U25" s="7" t="n">
+      <c r="V25" s="7" t="n">
         <v>45075</v>
       </c>
-      <c r="V25" s="7" t="n">
+      <c r="W25" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="X25" s="7" t="n">
         <v>45099</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>GANIE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="6" t="n"/>
+      <c r="Z25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>224</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>132528</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Gacepan ES</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SISON</t>
         </is>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="H26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF TWO (2) 1STY 3 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>19503501.2023</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>15072295.7</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="P26" s="5" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>February 13m 2024</t>
         </is>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>LMS 2022-RII-CAGAYAN-002</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>INFRA2023 045 LOT 2</t>
         </is>
       </c>
-      <c r="S26" s="7" t="n">
+      <c r="T26" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T26" s="7" t="n">
+      <c r="U26" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>45075</v>
       </c>
-      <c r="V26" s="7" t="n">
+      <c r="W26" s="7" t="n">
         <v>45096</v>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="X26" s="7" t="n">
         <v>45099</v>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>YZK CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6" t="n"/>
+      <c r="Z26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>225</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>132547</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>SALVACION ES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>TAGANA-AN</t>
         </is>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="H27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) UNIT ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND REPAIR/REHABILITATION OF TWO (2) UNITS  1STY 2 CL BLSB TYPE I BUILDING</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>17808072.6712</v>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 14214688.77</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7" t="n">
         <v>45125</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="Q27" s="7" t="n">
         <v>45324</v>
       </c>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>2022-004-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>003-2023</t>
         </is>
       </c>
-      <c r="S27" s="7" t="n">
+      <c r="T27" s="7" t="n">
         <v>44923</v>
       </c>
-      <c r="T27" s="7" t="n">
+      <c r="U27" s="7" t="n">
         <v>44931</v>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>44943</v>
       </c>
-      <c r="V27" s="7" t="n">
+      <c r="W27" s="7" t="n">
         <v>44958</v>
       </c>
-      <c r="W27" s="7" t="n">
+      <c r="X27" s="7" t="n">
         <v>44960</v>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>DANREV CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Z27" s="6" t="n"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>226</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>214548</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Tabinas Indigenous Community Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM, AND FLOOD MARKER</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>21084577.8768</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>17818880.19</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7" t="n">
         <v>45427</v>
       </c>
-      <c r="P28" s="7" t="n">
+      <c r="Q28" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>CY2023 LMS</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>CY2023 LMS</t>
         </is>
       </c>
-      <c r="S28" s="7" t="n">
+      <c r="T28" s="7" t="n">
         <v>45103</v>
       </c>
-      <c r="T28" s="7" t="n">
+      <c r="U28" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="V28" s="7" t="n">
         <v>45124</v>
       </c>
-      <c r="V28" s="7" t="n">
+      <c r="W28" s="7" t="n">
         <v>45153</v>
       </c>
-      <c r="W28" s="7" t="n">
+      <c r="X28" s="7" t="n">
         <v>45182</v>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>Rely Construction and Supply</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>with Time Extensions due to unworkable days due to bad weather condition and delays in the delivery of materials due to unpassable road</t>
         </is>
       </c>
-      <c r="Z28" s="6" t="n"/>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>294</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>131531</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Humilog ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>REMEDIOS T. ROMUALDEZ</t>
         </is>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="H29" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM COLLECTOR, </t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>17170000.1</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>14766095.03</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="O29" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -3456,19 +3541,19 @@
       </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr">
+        <is>
           <t>LMS 2023 - CARAGA - AGUSAN DEL NORTE - 001</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>LMS 2023 - CARAGA - AGUSAN DEL NORTE - 001</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="T29" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -3479,595 +3564,613 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="V29" s="7" t="n">
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W29" s="7" t="n">
         <v>45133</v>
       </c>
-      <c r="W29" s="7" t="n">
+      <c r="X29" s="7" t="n">
         <v>45145</v>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>Jodels Construction Supplies &amp; Merchandise</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="6" t="n"/>
+      <c r="Z29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>295</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>132316</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Osmeña Elementary School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>LIBJO (ALBOR)</t>
         </is>
       </c>
-      <c r="G30" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOM SCHOOL BUILDING (WITH COMMON TOILET), with Provision of WATER SYSTEM-Deep Well Design with electric-powered Submersible water pump, School Furniture, Perimeter Solar Lighting System</t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>17166772.68</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>13427411.97</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7" t="n">
+      <c r="O30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7" t="n">
         <v>45337</v>
       </c>
-      <c r="P30" s="7" t="n">
+      <c r="Q30" s="7" t="n">
         <v>45376</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-002</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S30" s="7" t="n">
+      <c r="T30" s="7" t="n">
         <v>45048</v>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="U30" s="7" t="n">
         <v>45062</v>
       </c>
-      <c r="U30" s="7" t="n">
+      <c r="V30" s="7" t="n">
         <v>45071</v>
       </c>
-      <c r="V30" s="7" t="n">
+      <c r="W30" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="W30" s="7" t="n">
+      <c r="X30" s="7" t="n">
         <v>45127</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>DANREV</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="Z30" s="6" t="n"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>296</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>132169</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Halian Elementary School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>DEL CARMEN</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H31" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>17169796.75</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>16945355.98</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="7" t="n">
+      <c r="O31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7" t="n">
         <v>45390</v>
       </c>
-      <c r="P31" s="7" t="n">
+      <c r="Q31" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="Q31" s="5" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-018</t>
         </is>
       </c>
-      <c r="S31" s="7" t="n">
+      <c r="T31" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="U31" s="7" t="n">
         <v>45329</v>
       </c>
-      <c r="U31" s="7" t="n">
+      <c r="V31" s="7" t="n">
         <v>45342</v>
       </c>
-      <c r="V31" s="7" t="n">
+      <c r="W31" s="7" t="n">
         <v>45356</v>
       </c>
-      <c r="W31" s="7" t="n">
+      <c r="X31" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>RBEP Construction</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="6" t="n"/>
+      <c r="Z31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>297</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>132149</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Corazon Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>GENERAL LUNA</t>
         </is>
       </c>
-      <c r="G32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H32" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>17169796.75</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>16943551</v>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7" t="n">
         <v>45390</v>
       </c>
-      <c r="P32" s="7" t="n">
+      <c r="Q32" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="Q32" s="5" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="R32" s="5" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2023-019</t>
         </is>
       </c>
-      <c r="S32" s="7" t="n">
+      <c r="T32" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="U32" s="7" t="n">
         <v>45329</v>
       </c>
-      <c r="U32" s="7" t="n">
+      <c r="V32" s="7" t="n">
         <v>45342</v>
       </c>
-      <c r="V32" s="7" t="n">
+      <c r="W32" s="7" t="n">
         <v>45356</v>
       </c>
-      <c r="W32" s="7" t="n">
+      <c r="X32" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="X32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>RBEP Construction</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="6" t="n"/>
+      <c r="Z32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>298</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>132543</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Laurel ES</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>TAGANA-AN</t>
         </is>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="H33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOM SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>17165004.86</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="M33" s="5" t="n">
         <v>12091132.49</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="7" t="n">
-        <v>45252</v>
+      <c r="O33" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>45252</v>
       </c>
-      <c r="Q33" s="5" t="inlineStr">
+      <c r="Q33" s="7" t="n">
+        <v>45252</v>
+      </c>
+      <c r="R33" s="5" t="inlineStr">
         <is>
           <t>2023-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R33" s="5" t="inlineStr">
+      <c r="S33" s="5" t="inlineStr">
         <is>
           <t>006-2023</t>
         </is>
       </c>
-      <c r="S33" s="7" t="n">
+      <c r="T33" s="7" t="n">
         <v>45036</v>
       </c>
-      <c r="T33" s="7" t="n">
+      <c r="U33" s="7" t="n">
         <v>45043</v>
       </c>
-      <c r="U33" s="7" t="n">
+      <c r="V33" s="7" t="n">
         <v>45055</v>
       </c>
-      <c r="V33" s="7" t="n">
+      <c r="W33" s="7" t="n">
         <v>45070</v>
       </c>
-      <c r="W33" s="7" t="n">
+      <c r="X33" s="7" t="n">
         <v>45072</v>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>AMALGO CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="inlineStr">
+      <c r="Z33" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z33" s="6" t="n"/>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>299</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>305747</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Gacub Atad S. Iligan Tribal National High School</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>CARMEN</t>
         </is>
       </c>
-      <c r="G34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H34" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER SOLAR LIGHTING SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>14359089.13</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="M34" s="5" t="n">
         <v>11736814.2</v>
       </c>
-      <c r="M34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="Q34" s="7" t="n">
         <v>45465</v>
       </c>
-      <c r="Q34" s="5" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>LMS-001</t>
         </is>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>2023 - 002</t>
         </is>
       </c>
-      <c r="S34" s="7" t="n">
+      <c r="T34" s="7" t="n">
         <v>45201</v>
       </c>
-      <c r="T34" s="7" t="n">
+      <c r="U34" s="7" t="n">
         <v>45215</v>
       </c>
-      <c r="U34" s="7" t="n">
+      <c r="V34" s="7" t="n">
         <v>45224</v>
       </c>
-      <c r="V34" s="7" t="n">
+      <c r="W34" s="7" t="n">
         <v>45232</v>
       </c>
-      <c r="W34" s="7" t="n">
+      <c r="X34" s="7" t="n">
         <v>45280</v>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y34" s="5" t="inlineStr">
+      <c r="Z34" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z34" s="6" t="n"/>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>300</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>136972</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Pag-asa Tribal Community Elementary School</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H35" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>22972431.7</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>22744896.06</v>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O35" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P35" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q35" s="5" t="n">
-        <v>0</v>
+      <c r="Q35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S35" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S35" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T35" s="5" t="inlineStr">
         <is>
@@ -4091,95 +4194,98 @@
       </c>
       <c r="X35" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y35" s="5" t="inlineStr">
+        <is>
           <t>CYL Construction and Supply</t>
         </is>
       </c>
-      <c r="Y35" s="5" t="inlineStr">
+      <c r="Z35" s="5" t="inlineStr">
         <is>
           <t>With Time Extension due to Extra Work</t>
         </is>
       </c>
-      <c r="Z35" s="6" t="n"/>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>390</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Agusan del Norte</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>131588</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>RAM Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>TUBAY</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>: CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>23088243.68</v>
       </c>
-      <c r="L36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="M36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N36" s="5" t="n">
+      <c r="O36" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="O36" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P36" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q36" s="5" t="n">
-        <v>0</v>
+      <c r="Q36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S36" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S36" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T36" s="5" t="inlineStr">
         <is>
@@ -4201,193 +4307,199 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X36" s="5" t="n">
-        <v>0</v>
+      <c r="X36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z36" s="6" t="n"/>
+      <c r="Z36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>391</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Agusan del Sur</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>212051</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Jose T. Cuyos, Sr. I PS</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>ROSARIO</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF TWO(2) UNITS - ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE and SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>20300220.62</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>17777918.71</v>
       </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="7" t="n">
-        <v>45664</v>
+      <c r="O37" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="Q37" s="5" t="inlineStr">
+      <c r="Q37" s="7" t="n">
+        <v>45664</v>
+      </c>
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>2024-06-028</t>
         </is>
       </c>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>2024-04-010</t>
         </is>
       </c>
-      <c r="S37" s="7" t="n">
+      <c r="T37" s="7" t="n">
         <v>45413</v>
       </c>
-      <c r="T37" s="7" t="n">
+      <c r="U37" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="U37" s="7" t="n">
+      <c r="V37" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V37" s="7" t="n">
+      <c r="W37" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="W37" s="7" t="n">
+      <c r="X37" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="X37" s="5" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>OBMB BUILDERS</t>
         </is>
       </c>
-      <c r="Y37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="6" t="n"/>
+      <c r="Z37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>392</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Bayugan City</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>131643</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Taglibas ES</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYUGAN</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING  (WITH COMMON TOILET) WITH PROVISION OF RAINWATER SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM AND WATER SYSTEM COLLECTOR, </t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>22961884</v>
       </c>
-      <c r="L38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
+      <c r="M38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="5" t="n">
+      <c r="O38" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O38" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P38" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q38" s="5" t="n">
-        <v>0</v>
+      <c r="Q38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R38" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S38" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S38" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T38" s="5" t="inlineStr">
         <is>
@@ -4409,95 +4521,98 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="5" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="5" t="inlineStr">
         <is>
           <t>Mt. Ararat realigned to Taglibas ES</t>
         </is>
       </c>
-      <c r="Z38" s="6" t="n"/>
+      <c r="AA38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>393</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Butuan City</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>132072</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Doña Teodora ES</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>BUTUAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>27272727.27</v>
       </c>
-      <c r="L39" s="5" t="n">
+      <c r="M39" s="5" t="n">
         <v>25950680.71</v>
       </c>
-      <c r="M39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N39" s="5" t="n">
+      <c r="O39" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O39" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P39" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q39" s="5" t="n">
-        <v>0</v>
+      <c r="Q39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R39" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S39" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S39" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T39" s="5" t="inlineStr">
         <is>
@@ -4519,727 +4634,753 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="5" t="inlineStr">
+      <c r="X39" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5" t="inlineStr">
         <is>
           <t>with suballotment already downloaded</t>
         </is>
       </c>
-      <c r="Z39" s="6" t="n"/>
+      <c r="AA39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>394</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Cabadbaran City</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>330101</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Puting Bato National High School</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>CITY OF CABADBARAN</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>22850951.92</v>
       </c>
-      <c r="L40" s="5" t="n">
+      <c r="M40" s="5" t="n">
         <v>2923591.71</v>
       </c>
-      <c r="M40" s="5" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="5" t="n">
+      <c r="O40" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="P40" s="7" t="n">
         <v>45688</v>
       </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="n">
-        <v>10312123</v>
+      <c r="Q40" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R40" s="5" t="n">
         <v>10312123</v>
       </c>
-      <c r="S40" s="7" t="n">
+      <c r="S40" s="5" t="n">
+        <v>10312123</v>
+      </c>
+      <c r="T40" s="7" t="n">
         <v>45243</v>
       </c>
-      <c r="T40" s="7" t="n">
+      <c r="U40" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="U40" s="7" t="n">
+      <c r="V40" s="7" t="n">
         <v>45266</v>
-      </c>
-      <c r="V40" s="7" t="n">
-        <v>45436</v>
       </c>
       <c r="W40" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X40" s="5" t="inlineStr">
+      <c r="X40" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="6" t="n"/>
+      <c r="Z40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>395</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Dinagat Island</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>132558</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Sta Cruz Elementary School</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>TUBAJON</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H41" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY-FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAIN WATER COLLECTOR, SOLAR PV ENERGY SYSTEM, FURNITURES AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>22210093.61</v>
       </c>
-      <c r="L41" s="5" t="n">
+      <c r="M41" s="5" t="n">
         <v>21098025.14</v>
       </c>
-      <c r="M41" s="5" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7" t="n">
+      <c r="O41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7" t="n">
         <v>45616</v>
       </c>
-      <c r="P41" s="7" t="n">
+      <c r="Q41" s="7" t="n">
         <v>45799</v>
       </c>
-      <c r="Q41" s="5" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="R41" s="5" t="inlineStr">
+      <c r="S41" s="5" t="inlineStr">
         <is>
           <t>INFRA2023-004</t>
         </is>
       </c>
-      <c r="S41" s="7" t="n">
+      <c r="T41" s="7" t="n">
         <v>45264</v>
       </c>
-      <c r="T41" s="7" t="n">
+      <c r="U41" s="7" t="n">
         <v>45271</v>
       </c>
-      <c r="U41" s="7" t="n">
+      <c r="V41" s="7" t="n">
         <v>45294</v>
       </c>
-      <c r="V41" s="7" t="n">
+      <c r="W41" s="7" t="n">
         <v>45322</v>
       </c>
-      <c r="W41" s="7" t="n">
+      <c r="X41" s="7" t="n">
         <v>45437</v>
       </c>
-      <c r="X41" s="5" t="inlineStr">
+      <c r="Y41" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="6" t="n"/>
+      <c r="Z41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
+      <c r="A42" s="5" t="n">
+        <v>396</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C42" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>Siargao</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="E42" s="5" t="n">
         <v>132223</v>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>N.Sering  Comm. Sch.ES</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>SOCORRO</t>
         </is>
       </c>
-      <c r="G42" s="5" t="inlineStr">
+      <c r="H42" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H42" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="5" t="inlineStr">
+      <c r="K42" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="L42" s="5" t="n">
         <v>16637813.31</v>
       </c>
-      <c r="L42" s="5" t="n">
+      <c r="M42" s="5" t="n">
         <v>16378679.01</v>
       </c>
-      <c r="M42" s="5" t="inlineStr">
+      <c r="N42" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N42" s="5" t="n">
+      <c r="O42" s="5" t="n">
         <v>0.18</v>
       </c>
-      <c r="O42" s="7" t="n">
+      <c r="P42" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="P42" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q42" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R42" s="5" t="inlineStr">
+        <is>
           <t>BEFF-INFRA2024-001</t>
         </is>
       </c>
-      <c r="R42" s="5" t="inlineStr">
+      <c r="S42" s="5" t="inlineStr">
         <is>
           <t>BEFF-INFRA2024-001</t>
         </is>
       </c>
-      <c r="S42" s="7" t="n">
+      <c r="T42" s="7" t="n">
         <v>45318</v>
       </c>
-      <c r="T42" s="7" t="n">
+      <c r="U42" s="7" t="n">
         <v>45329</v>
-      </c>
-      <c r="U42" s="7" t="n">
-        <v>45384</v>
       </c>
       <c r="V42" s="7" t="n">
         <v>45384</v>
       </c>
       <c r="W42" s="7" t="n">
+        <v>45384</v>
+      </c>
+      <c r="X42" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="X42" s="5" t="inlineStr">
+      <c r="Y42" s="5" t="inlineStr">
         <is>
           <t>AN ESCALANTE CONSTRUCTION INC.</t>
         </is>
       </c>
-      <c r="Y42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="6" t="n"/>
+      <c r="Z42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
+      <c r="A43" s="5" t="n">
+        <v>397</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C43" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Surigao City</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="E43" s="5" t="n">
         <v>132242</v>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Alegria ES</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>SURIGAO CITY (Capital)</t>
         </is>
       </c>
-      <c r="G43" s="5" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H43" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="L43" s="5" t="n">
         <v>22395355.38</v>
       </c>
-      <c r="L43" s="5" t="n">
+      <c r="M43" s="5" t="n">
         <v>18148693.46</v>
       </c>
-      <c r="M43" s="5" t="inlineStr">
+      <c r="N43" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="7" t="n">
+      <c r="O43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="7" t="n">
         <v>45678</v>
       </c>
-      <c r="P43" s="7" t="n">
+      <c r="Q43" s="7" t="n">
         <v>45677</v>
       </c>
-      <c r="Q43" s="5" t="inlineStr">
+      <c r="R43" s="5" t="inlineStr">
         <is>
           <t>2023-11-577</t>
         </is>
       </c>
-      <c r="R43" s="5" t="inlineStr">
+      <c r="S43" s="5" t="inlineStr">
         <is>
           <t>FY-2023-INFRA-015</t>
         </is>
       </c>
-      <c r="S43" s="7" t="n">
+      <c r="T43" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="T43" s="7" t="n">
+      <c r="U43" s="7" t="n">
         <v>45278</v>
       </c>
-      <c r="U43" s="7" t="n">
+      <c r="V43" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="V43" s="7" t="n">
+      <c r="W43" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="W43" s="7" t="n">
+      <c r="X43" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="X43" s="5" t="inlineStr">
+      <c r="Y43" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY INC.</t>
         </is>
       </c>
-      <c r="Y43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="6" t="n"/>
+      <c r="Z43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+      <c r="A44" s="5" t="n">
+        <v>398</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C44" s="5" t="inlineStr">
+      <c r="D44" s="5" t="inlineStr">
         <is>
           <t>Surigao del Norte</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="E44" s="5" t="n">
         <v>132481</v>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>Sani-Sani PS</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>PLACER</t>
         </is>
       </c>
-      <c r="G44" s="5" t="inlineStr">
+      <c r="H44" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H44" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF 1STY2CL (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="L44" s="5" t="n">
         <v>18036516.81</v>
       </c>
-      <c r="L44" s="5" t="n">
+      <c r="M44" s="5" t="n">
         <v>17823108.98</v>
       </c>
-      <c r="M44" s="5" t="inlineStr">
+      <c r="N44" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" s="7" t="n">
+      <c r="O44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="7" t="n">
         <v>45585</v>
       </c>
-      <c r="P44" s="7" t="n">
+      <c r="Q44" s="7" t="n">
         <v>45635</v>
       </c>
-      <c r="Q44" s="5" t="inlineStr">
+      <c r="R44" s="5" t="inlineStr">
         <is>
           <t>2024-001-LMS-CARAGA</t>
         </is>
       </c>
-      <c r="R44" s="5" t="inlineStr">
+      <c r="S44" s="5" t="inlineStr">
         <is>
           <t>INFRA003-2024</t>
         </is>
       </c>
-      <c r="S44" s="7" t="n">
+      <c r="T44" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="T44" s="7" t="n">
+      <c r="U44" s="7" t="n">
         <v>45246</v>
       </c>
-      <c r="U44" s="7" t="n">
+      <c r="V44" s="7" t="n">
         <v>45258</v>
       </c>
-      <c r="V44" s="7" t="n">
+      <c r="W44" s="7" t="n">
         <v>45421</v>
       </c>
-      <c r="W44" s="7" t="n">
+      <c r="X44" s="7" t="n">
         <v>45425</v>
       </c>
-      <c r="X44" s="5" t="inlineStr">
+      <c r="Y44" s="5" t="inlineStr">
         <is>
           <t>RJB CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y44" s="5" t="inlineStr">
+      <c r="Z44" s="5" t="inlineStr">
         <is>
           <t>WITH TIME EXTENSION</t>
         </is>
       </c>
-      <c r="Z44" s="6" t="n"/>
+      <c r="AA44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
+      <c r="A45" s="5" t="n">
+        <v>399</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C45" s="5" t="inlineStr">
+      <c r="D45" s="5" t="inlineStr">
         <is>
           <t>Surigao del Sur</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="E45" s="5" t="n">
         <v>500571</v>
       </c>
-      <c r="E45" s="5" t="inlineStr">
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>Pakwan Integrated School</t>
         </is>
       </c>
-      <c r="F45" s="5" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>LANUZA</t>
         </is>
       </c>
-      <c r="G45" s="5" t="inlineStr">
+      <c r="H45" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H45" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
+      <c r="K45" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="L45" s="5" t="n">
         <v>21869030.83</v>
       </c>
-      <c r="L45" s="5" t="n">
+      <c r="M45" s="5" t="n">
         <v>21626168.4137371</v>
       </c>
-      <c r="M45" s="5" t="inlineStr">
+      <c r="N45" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N45" s="5" t="n">
+      <c r="O45" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O45" s="7" t="n">
+      <c r="P45" s="7" t="n">
         <v>45759</v>
       </c>
-      <c r="P45" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q45" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R45" s="5" t="inlineStr">
+        <is>
           <t>LMS 2024 - R XIII - SURIGAO DEL SUR - 003</t>
         </is>
       </c>
-      <c r="R45" s="5" t="inlineStr">
+      <c r="S45" s="5" t="inlineStr">
         <is>
           <t>008 - 2024</t>
         </is>
       </c>
-      <c r="S45" s="7" t="n">
+      <c r="T45" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="T45" s="7" t="n">
+      <c r="U45" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U45" s="7" t="n">
+      <c r="V45" s="7" t="n">
         <v>45260</v>
       </c>
-      <c r="V45" s="7" t="n">
+      <c r="W45" s="7" t="n">
         <v>45341</v>
       </c>
-      <c r="W45" s="7" t="n">
+      <c r="X45" s="7" t="n">
         <v>45579</v>
       </c>
-      <c r="X45" s="5" t="inlineStr">
+      <c r="Y45" s="5" t="inlineStr">
         <is>
           <t>RELY CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="Y45" s="5" t="inlineStr">
+      <c r="Z45" s="5" t="inlineStr">
         <is>
           <t>Contract time extension approved due to impassable roads caused by severe weather</t>
         </is>
       </c>
-      <c r="Z45" s="6" t="n"/>
+      <c r="AA45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
+      <c r="A46" s="5" t="n">
+        <v>400</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>CARAGA</t>
         </is>
       </c>
-      <c r="C46" s="5" t="inlineStr">
+      <c r="D46" s="5" t="inlineStr">
         <is>
           <t>Tandag City</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="E46" s="5" t="n">
         <v>132965</v>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>Hitaob Elementary School</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="G46" s="5" t="inlineStr">
         <is>
           <t>CITY OF TANDAG (Capital)</t>
         </is>
       </c>
-      <c r="G46" s="5" t="inlineStr">
+      <c r="H46" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H46" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J46" s="5" t="inlineStr">
+      <c r="K46" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="L46" s="5" t="n">
         <v>22162351.68</v>
       </c>
-      <c r="L46" s="5" t="n">
+      <c r="M46" s="5" t="n">
         <v>17311234.52</v>
       </c>
-      <c r="M46" s="5" t="inlineStr">
+      <c r="N46" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N46" s="5" t="n">
+      <c r="O46" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="O46" s="7" t="n">
+      <c r="P46" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="P46" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q46" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R46" s="5" t="inlineStr">
+        <is>
           <t>2023-11-201</t>
         </is>
       </c>
-      <c r="R46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7" t="n">
+      <c r="S46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="n">
         <v>45259</v>
       </c>
-      <c r="T46" s="7" t="n">
+      <c r="U46" s="7" t="n">
         <v>45267</v>
       </c>
-      <c r="U46" s="7" t="n">
+      <c r="V46" s="7" t="n">
         <v>45287</v>
       </c>
-      <c r="V46" s="7" t="n">
+      <c r="W46" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="W46" s="7" t="n">
+      <c r="X46" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="X46" s="5" t="inlineStr">
+      <c r="Y46" s="5" t="inlineStr">
         <is>
           <t>Grandstellar Builders Inc.</t>
         </is>
       </c>
-      <c r="Y46" s="5" t="inlineStr">
+      <c r="Z46" s="5" t="inlineStr">
         <is>
           <t>with time extension and suspension</t>
         </is>
       </c>
-      <c r="Z46" s="6" t="n"/>
+      <c r="AA46" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA46" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
